--- a/JS-Frameworks-AngularJS/Issue-Tracking-System/JS-Frameworks-Self-Evaluation-Protocol.xlsx
+++ b/JS-Frameworks-AngularJS/Issue-Tracking-System/JS-Frameworks-Self-Evaluation-Protocol.xlsx
@@ -56,10 +56,10 @@
     <t>Days Commit in GitHub</t>
   </si>
   <si>
+    <t>Numbers of Commits in GitHub</t>
+  </si>
+  <si>
     <t>∞</t>
-  </si>
-  <si>
-    <t>Numbers of Commits in GitHub</t>
   </si>
   <si>
     <t>Basic Options (up to 150)</t>
@@ -158,12 +158,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -200,11 +200,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="6">
@@ -304,19 +299,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -700,11 +695,11 @@
         </a:custGeom>
         <a:gradFill rotWithShape="0">
           <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
             <a:gs pos="100000">
               <a:srgbClr val="9CBEE0"/>
-            </a:gs>
-            <a:gs pos="0">
-              <a:srgbClr val="BBD5F0"/>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
@@ -731,7 +726,7 @@
   <dimension ref="B2:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:E4"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -806,18 +801,18 @@
         <v>12</v>
       </c>
       <c r="C8" s="9"/>
-      <c r="D8" s="10" t="s">
-        <v>13</v>
+      <c r="D8" s="10">
+        <v>29</v>
       </c>
       <c r="E8" s="9"/>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E9" s="9"/>
     </row>
